--- a/Automação/Teste de Urls/respostas.xlsx
+++ b/Automação/Teste de Urls/respostas.xlsx
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -620,12 +620,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com</t>
+          <t>https://www.facebook.comm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -644,12 +644,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.example.com</t>
+          <t>https://www.example.comm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
